--- a/hosts.xlsx
+++ b/hosts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -33,25 +33,19 @@
     <t>snmp_community</t>
   </si>
   <si>
-    <t>PI-TSA-CLI-US-IMPORT-EM-AREIAS-2143407</t>
-  </si>
-  <si>
-    <t>10.138.64.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US IMPORT (SEMEC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template CPE Ubiquiti Business</t>
-  </si>
-  <si>
-    <t>{$SNMP_COMMUNITY}</t>
-  </si>
-  <si>
-    <t>PI-TSA-CLI-US-IMPORT-EM-DOM-HELDER-CAMARA-2148664</t>
-  </si>
-  <si>
-    <t>10.138.64.7</t>
+    <t>CLI-PI-TSA-SLINK</t>
+  </si>
+  <si>
+    <t>10.180.0.2</t>
+  </si>
+  <si>
+    <t>CLI-TERESINA</t>
+  </si>
+  <si>
+    <t>Mikrotik</t>
+  </si>
+  <si>
+    <t>Sl1nk@link</t>
   </si>
 </sst>
 </file>
@@ -68,17 +62,14 @@
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -673,25 +664,15 @@
       </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
